--- a/Code/Overlap/SolCheck.xlsx
+++ b/Code/Overlap/SolCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAE0B79-5E7F-4E59-802F-261FCF7CDB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D64CED-686B-4BEE-8B13-5CD2338B75AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1216E67F-FE2E-4197-BF88-EB74DB65ED3B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Availability</t>
   </si>
@@ -258,21 +258,21 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A6C30D-2564-44ED-B130-7E857DB19B52}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,13 +2996,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+        <f>SUM(D9:D20)+SUM(K24:K35)+SUM(G39:G50)</f>
+        <v>1835800</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E1">
@@ -3010,13 +3011,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E2">
@@ -3024,13 +3020,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>720</v>
-      </c>
-      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E3">
@@ -3038,7 +3034,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E4">
@@ -3046,7 +3048,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>720</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E5">
@@ -3078,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f>(B9+C9)*$B$1*$B$2</f>
+        <f>(B9+C9)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3093,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D20" si="0">(B10+C10)*$B$1*$B$2</f>
+        <f>(B10+C10)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3108,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>(B11+C11)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3123,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>(B12+C12)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>(B13+C13)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3153,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>(B14+C14)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3162,14 +3170,14 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(B15+C15)*$B$3*$B$4</f>
+        <v>4550</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3183,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>(B16+C16)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3192,14 +3200,14 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(B17+C17)*$B$3*$B$4</f>
+        <v>2450</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3213,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>(B18+C18)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3228,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f>(B19+C19)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3243,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f>(B20+C20)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3309,11 +3317,11 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f>SUM(B$24:B24,E$24:E24)*$B$2*$B$3</f>
+        <f>SUM(B$24:B24,E$24:E24)*$B$4*$B$5</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>SUM(C$24:C24,F$24:F24)*$B$2*$B$3</f>
+        <f>SUM(C$24:C24,F$24:F24)*$B$4*$B$5</f>
         <v>0</v>
       </c>
       <c r="K24">
@@ -3346,15 +3354,15 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f>SUM(B$24:B25,E$24:E25)*$B$2*$B$3</f>
+        <f>SUM(B$24:B25,E$24:E25)*$B$4*$B$5</f>
         <v>100800</v>
       </c>
       <c r="J25">
-        <f>SUM(C$24:C25,F$24:F25)*$B$2*$B$3</f>
+        <f>SUM(C$24:C25,F$24:F25)*$B$4*$B$5</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K35" si="1">I25-J25</f>
+        <f t="shared" ref="K25:K35" si="0">I25-J25</f>
         <v>100800</v>
       </c>
     </row>
@@ -3369,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D35" si="2">B26-C26+D25</f>
+        <f t="shared" ref="D26:D35" si="1">B26-C26+D25</f>
         <v>0</v>
       </c>
       <c r="E26">
@@ -3379,19 +3387,19 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G35" si="3">E26-F26+G25</f>
+        <f t="shared" ref="G26:G35" si="2">E26-F26+G25</f>
         <v>2</v>
       </c>
       <c r="I26">
-        <f>SUM(B$24:B26,E$24:E26)*$B$2*$B$3</f>
+        <f>SUM(B$24:B26,E$24:E26)*$B$4*$B$5</f>
         <v>201600</v>
       </c>
       <c r="J26">
-        <f>SUM(C$24:C26,F$24:F26)*$B$2*$B$3</f>
+        <f>SUM(C$24:C26,F$24:F26)*$B$4*$B$5</f>
         <v>100800</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100800</v>
       </c>
     </row>
@@ -3406,29 +3414,29 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="I27">
-        <f>SUM(B$24:B27,E$24:E27)*$B$2*$B$3</f>
+        <f>SUM(B$24:B27,E$24:E27)*$B$4*$B$5</f>
         <v>201600</v>
       </c>
       <c r="J27">
-        <f>SUM(C$24:C27,F$24:F27)*$B$2*$B$3</f>
+        <f>SUM(C$24:C27,F$24:F27)*$B$4*$B$5</f>
         <v>201600</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3443,29 +3451,29 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>SUM(B$24:B28,E$24:E28)*$B$2*$B$3</f>
+        <f>SUM(B$24:B28,E$24:E28)*$B$4*$B$5</f>
         <v>302400</v>
       </c>
       <c r="J28">
-        <f>SUM(C$24:C28,F$24:F28)*$B$2*$B$3</f>
+        <f>SUM(C$24:C28,F$24:F28)*$B$4*$B$5</f>
         <v>201600</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100800</v>
       </c>
     </row>
@@ -3480,29 +3488,29 @@
         <v>2</v>
       </c>
       <c r="D29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>SUM(B$24:B29,E$24:E29)*$B$2*$B$3</f>
+        <f>SUM(B$24:B29,E$24:E29)*$B$4*$B$5</f>
         <v>453600</v>
       </c>
       <c r="J29">
-        <f>SUM(C$24:C29,F$24:F29)*$B$2*$B$3</f>
+        <f>SUM(C$24:C29,F$24:F29)*$B$4*$B$5</f>
         <v>302400</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>151200</v>
       </c>
     </row>
@@ -3517,29 +3525,29 @@
         <v>3</v>
       </c>
       <c r="D30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>SUM(B$24:B30,E$24:E30)*$B$2*$B$3</f>
+        <f>SUM(B$24:B30,E$24:E30)*$B$4*$B$5</f>
         <v>655200</v>
       </c>
       <c r="J30">
-        <f>SUM(C$24:C30,F$24:F30)*$B$2*$B$3</f>
+        <f>SUM(C$24:C30,F$24:F30)*$B$4*$B$5</f>
         <v>453600</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>201600</v>
       </c>
     </row>
@@ -3554,29 +3562,29 @@
         <v>4</v>
       </c>
       <c r="D31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>SUM(B$24:B31,E$24:E31)*$B$2*$B$3</f>
+        <f>SUM(B$24:B31,E$24:E31)*$B$4*$B$5</f>
         <v>907200</v>
       </c>
       <c r="J31">
-        <f>SUM(C$24:C31,F$24:F31)*$B$2*$B$3</f>
+        <f>SUM(C$24:C31,F$24:F31)*$B$4*$B$5</f>
         <v>655200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>252000</v>
       </c>
     </row>
@@ -3591,7 +3599,7 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32">
@@ -3601,19 +3609,19 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I32">
-        <f>SUM(B$24:B32,E$24:E32)*$B$2*$B$3</f>
+        <f>SUM(B$24:B32,E$24:E32)*$B$4*$B$5</f>
         <v>1159200</v>
       </c>
       <c r="J32">
-        <f>SUM(C$24:C32,F$24:F32)*$B$2*$B$3</f>
+        <f>SUM(C$24:C32,F$24:F32)*$B$4*$B$5</f>
         <v>907200</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>252000</v>
       </c>
     </row>
@@ -3628,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33">
@@ -3638,19 +3646,19 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I33">
-        <f>SUM(B$24:B33,E$24:E33)*$B$2*$B$3</f>
+        <f>SUM(B$24:B33,E$24:E33)*$B$4*$B$5</f>
         <v>1310400</v>
       </c>
       <c r="J33">
-        <f>SUM(C$24:C33,F$24:F33)*$B$2*$B$3</f>
+        <f>SUM(C$24:C33,F$24:F33)*$B$4*$B$5</f>
         <v>1159200</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>151200</v>
       </c>
     </row>
@@ -3665,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E34">
@@ -3675,19 +3683,19 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>SUM(B$24:B34,E$24:E34)*$B$2*$B$3</f>
+        <f>SUM(B$24:B34,E$24:E34)*$B$4*$B$5</f>
         <v>1713600</v>
       </c>
       <c r="J34">
-        <f>SUM(C$24:C34,F$24:F34)*$B$2*$B$3</f>
+        <f>SUM(C$24:C34,F$24:F34)*$B$4*$B$5</f>
         <v>1310400</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>403200</v>
       </c>
     </row>
@@ -3702,29 +3710,29 @@
         <v>8</v>
       </c>
       <c r="D35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>SUM(B$24:B35,E$24:E35)*$B$2*$B$3</f>
+        <f>SUM(B$24:B35,E$24:E35)*$B$4*$B$5</f>
         <v>1814400</v>
       </c>
       <c r="J35">
-        <f>SUM(C$24:C35,F$24:F35)*$B$2*$B$3</f>
+        <f>SUM(C$24:C35,F$24:F35)*$B$4*$B$5</f>
         <v>1713600</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100800</v>
       </c>
     </row>
@@ -3764,13 +3772,17 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f>B39*$E$1+C39</f>
+        <f t="shared" ref="D39:D50" si="3">B39*$E$1+C39</f>
         <v>0</v>
       </c>
       <c r="E39">
         <f>(B9+C9)*$E$2+C24*$E$4+F24*$E$5</f>
         <v>0</v>
       </c>
+      <c r="G39">
+        <f>B39*$E$3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3783,13 +3795,17 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f>B40*$E$1+C40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E40">
         <f t="shared" ref="E40:E50" si="4">(B10+C10)*$E$2+C25*$E$4+F25*$E$5</f>
         <v>0</v>
       </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G50" si="5">B40*$E$3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -3802,13 +3818,17 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f>B41*$E$1+C41</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3821,13 +3841,17 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f>B42*$E$1+C42</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3840,11 +3864,15 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f>B43*$E$1+C43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3859,13 +3887,17 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f>B44*$E$1+C44</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3878,12 +3910,16 @@
         <v>80</v>
       </c>
       <c r="D45">
-        <f>B45*$E$1+C45</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3897,13 +3933,17 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f>B46*$E$1+C46</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3916,12 +3956,16 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f>B47*$E$1+C47</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3935,15 +3979,19 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f>B48*$E$1+C48</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -3954,15 +4002,19 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f>B49*$E$1+C49</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -3973,12 +4025,16 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f>B50*$E$1+C50</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
         <v>32</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -3991,10 +4047,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E50">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>$D39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$D39</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Code/Overlap/SolCheck.xlsx
+++ b/Code/Overlap/SolCheck.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D64CED-686B-4BEE-8B13-5CD2338B75AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81533823-5AF9-4D14-86ED-72AF6DFF2619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1216E67F-FE2E-4197-BF88-EB74DB65ED3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1216E67F-FE2E-4197-BF88-EB74DB65ED3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Year" sheetId="2" r:id="rId2"/>
+    <sheet name="Month" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Availability</t>
   </si>
@@ -190,6 +191,12 @@
   </si>
   <si>
     <t>dR01</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -220,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +237,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -246,10 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2986,7 +3008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A6C30D-2564-44ED-B130-7E857DB19B52}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -3086,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f>(B9+C9)*$B$3*$B$4</f>
+        <f t="shared" ref="D9:D20" si="0">(B9+C9)*$B$3*$B$4</f>
         <v>0</v>
       </c>
     </row>
@@ -3101,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f>(B10+C10)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3116,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>(B11+C11)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f>(B12+C12)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3146,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f>(B13+C13)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3161,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f>(B14+C14)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3176,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f>(B15+C15)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>4550</v>
       </c>
     </row>
@@ -3191,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f>(B16+C16)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3206,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>(B17+C17)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>2450</v>
       </c>
     </row>
@@ -3221,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>(B18+C18)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3236,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>(B19+C19)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3251,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f>(B20+C20)*$B$3*$B$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K35" si="0">I25-J25</f>
+        <f t="shared" ref="K25:K35" si="1">I25-J25</f>
         <v>100800</v>
       </c>
     </row>
@@ -3377,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D35" si="1">B26-C26+D25</f>
+        <f t="shared" ref="D26:D35" si="2">B26-C26+D25</f>
         <v>0</v>
       </c>
       <c r="E26">
@@ -3387,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G35" si="2">E26-F26+G25</f>
+        <f t="shared" ref="G26:G35" si="3">E26-F26+G25</f>
         <v>2</v>
       </c>
       <c r="I26">
@@ -3399,7 +3421,7 @@
         <v>100800</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100800</v>
       </c>
     </row>
@@ -3414,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27">
@@ -3424,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27">
@@ -3436,7 +3458,7 @@
         <v>201600</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3451,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E28">
@@ -3461,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28">
@@ -3473,7 +3495,7 @@
         <v>201600</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100800</v>
       </c>
     </row>
@@ -3488,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E29">
@@ -3498,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29">
@@ -3510,7 +3532,7 @@
         <v>302400</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151200</v>
       </c>
     </row>
@@ -3525,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E30">
@@ -3535,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30">
@@ -3547,7 +3569,7 @@
         <v>453600</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201600</v>
       </c>
     </row>
@@ -3562,7 +3584,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E31">
@@ -3572,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31">
@@ -3584,7 +3606,7 @@
         <v>655200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252000</v>
       </c>
     </row>
@@ -3599,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E32">
@@ -3609,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I32">
@@ -3621,7 +3643,7 @@
         <v>907200</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252000</v>
       </c>
     </row>
@@ -3636,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E33">
@@ -3646,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I33">
@@ -3658,7 +3680,7 @@
         <v>1159200</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151200</v>
       </c>
     </row>
@@ -3673,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E34">
@@ -3683,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34">
@@ -3695,7 +3717,7 @@
         <v>1310400</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>403200</v>
       </c>
     </row>
@@ -3710,7 +3732,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E35">
@@ -3720,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35">
@@ -3732,7 +3754,7 @@
         <v>1713600</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100800</v>
       </c>
     </row>
@@ -3772,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D50" si="3">B39*$E$1+C39</f>
+        <f t="shared" ref="D39:D50" si="4">B39*$E$1+C39</f>
         <v>0</v>
       </c>
       <c r="E39">
@@ -3795,15 +3817,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E50" si="4">(B10+C10)*$E$2+C25*$E$4+F25*$E$5</f>
+        <f t="shared" ref="E40:E50" si="5">(B10+C10)*$E$2+C25*$E$4+F25*$E$5</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G50" si="5">B40*$E$3</f>
+        <f t="shared" ref="G40:G50" si="6">B40*$E$3</f>
         <v>0</v>
       </c>
     </row>
@@ -3818,15 +3840,15 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -3841,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -3864,15 +3886,15 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3887,15 +3909,15 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -3910,15 +3932,15 @@
         <v>80</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3933,15 +3955,15 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -3956,15 +3978,15 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -3979,15 +4001,15 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -4002,15 +4024,15 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -4025,15 +4047,15 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -4056,4 +4078,722 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B89115-67E8-4D23-8078-88FCADA3181C}">
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1">
+        <f>SUM(H3:H42)</f>
+        <v>102</v>
+      </c>
+      <c r="J1">
+        <f>I1*10*2.5</f>
+        <v>2550</v>
+      </c>
+      <c r="L1">
+        <f>55+65+22.5</f>
+        <v>142.5</v>
+      </c>
+      <c r="M1">
+        <f>1125+L1*10</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12.5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17.5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22.5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27.5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>37.5</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>42.5</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>47.5</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>52.5</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>57.5</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>62.5</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>65</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>67.5</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>72.5</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>77.5</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>82.5</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>87.5</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>92.5</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>95</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/Overlap/SolCheck.xlsx
+++ b/Code/Overlap/SolCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81533823-5AF9-4D14-86ED-72AF6DFF2619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA1C216-4005-41B6-AF11-66940E2438F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1216E67F-FE2E-4197-BF88-EB74DB65ED3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Availability</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>"01"</t>
+  </si>
+  <si>
+    <t>"2"</t>
   </si>
 </sst>
 </file>
@@ -227,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +274,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4082,310 +4085,341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B89115-67E8-4D23-8078-88FCADA3181C}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1">
-        <f>SUM(H3:H42)</f>
-        <v>102</v>
-      </c>
-      <c r="J1">
-        <f>I1*10*2.5</f>
-        <v>2550</v>
-      </c>
-      <c r="L1">
-        <f>55+65+22.5</f>
-        <v>142.5</v>
-      </c>
-      <c r="M1">
-        <f>1125+L1*10</f>
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2.5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>7.5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
       <c r="D7" s="3"/>
-      <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>12.5</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
       <c r="D8" s="3"/>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>17.5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="H10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>22.5</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>27.5</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="H14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>30</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>32.5</v>
       </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>35</v>
       </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="3"/>
-      <c r="H17">
-        <v>3</v>
-      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>37.5</v>
       </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="3"/>
-      <c r="H18">
-        <v>3</v>
-      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>40</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="3"/>
-      <c r="F19">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>3</v>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>42.5</v>
       </c>
       <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="3"/>
-      <c r="H20">
-        <v>3</v>
-      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>45</v>
       </c>
       <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="3"/>
-      <c r="H21">
-        <v>3</v>
-      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>47.5</v>
       </c>
       <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="3"/>
-      <c r="H22">
-        <v>3</v>
-      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>50</v>
       </c>
       <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="3"/>
-      <c r="H23">
-        <v>3</v>
-      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>52.5</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>55</v>
       </c>
       <c r="B25" s="3">
@@ -4394,48 +4428,56 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>57.5</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="H26">
-        <v>2</v>
-      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>60</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="H27">
-        <v>2</v>
-      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>62.5</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="H28">
-        <v>2</v>
-      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>65</v>
       </c>
       <c r="B29" s="3"/>
@@ -4443,353 +4485,370 @@
       <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="4"/>
+      <c r="F29" s="5">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>2</v>
+      <c r="G29" s="5">
+        <v>85</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>67.5</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="H30">
-        <v>2</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>70</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="H31">
-        <v>2</v>
-      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>72.5</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="H32">
-        <v>2</v>
-      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>75</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="H33">
-        <v>2</v>
-      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>77.5</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="H34">
-        <v>2</v>
-      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>80</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="H35">
-        <v>2</v>
-      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>82.5</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="H36">
-        <v>2</v>
-      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>85</v>
       </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>87.5</v>
       </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="H38">
-        <v>1</v>
-      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>90</v>
       </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="H39">
-        <v>1</v>
-      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>92.5</v>
       </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="H40">
-        <v>1</v>
-      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>95</v>
       </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>97.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>102.5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>107.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>112.5</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>117.5</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>122.5</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>127.5</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>132.5</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>137.5</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>142.5</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>147.5</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>152.5</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>157.5</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>162.5</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>167.5</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>172.5</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>177.5</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>182.5</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>187.5</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>192.5</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>197.5</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>200</v>
       </c>
     </row>
